--- a/VSCode_Git.xlsx
+++ b/VSCode_Git.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snow1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yajima.mariko\Desktop\Udemy\studingUdemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DD9DC6-266C-440F-B26D-5CD112993B91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006B27E8-B258-4274-AA45-97C00766A334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4732BDE3-9546-460C-A69B-A17D05715147}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4732BDE3-9546-460C-A69B-A17D05715147}"/>
   </bookViews>
   <sheets>
     <sheet name="local側の初期設定" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Ctrl + Shift + P</t>
     <phoneticPr fontId="1"/>
@@ -124,14 +124,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://monsat.hatenablog.com/entry/generating-ssh-keys-for-github</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SSHの公開鍵を作成しGithubに登録する手順</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Git Bashをダウンロードする</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -153,31 +145,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SSH公開鍵の作成を求められた場合は、以下を行う。</t>
-    <rPh sb="3" eb="5">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カギ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>適当なファイルを変更して、add、commit、pushしてみる。</t>
     <rPh sb="0" eb="2">
       <t>テキトウ</t>
@@ -303,10 +270,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>terminalでメールアドレスを設定する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SSH認証も問題ない（$ ssh -T git@github.com　で確認）にも関わらず、pushに失敗した場合は、</t>
     <rPh sb="3" eb="5">
       <t>ニンショウ</t>
@@ -420,34 +383,6 @@
     <rPh sb="49" eb="50">
       <t>ミ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">$ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">git clone </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>git@github.com:masamitsu-konya/example.git</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -599,6 +534,70 @@
       <t>フメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">git clone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git@github.com:mariko-y/torepuro-git.git</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>terminalでメールアドレスを設定する。　※</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　Cloneができない・SSH公開鍵の作成を求められた場合は、以下を行う。</t>
+    <rPh sb="16" eb="18">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　SSHの公開鍵を作成しGithubに登録する手順</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://monsat.hatenablog.com/entry/generating-ssh-keys-for-github</t>
   </si>
 </sst>
 </file>
@@ -740,13 +739,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>284764</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -784,13 +783,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>173355</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>555090</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>73269</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -860,13 +859,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>540435</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>183173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>181416</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>175847</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -936,13 +935,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>12895</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>226547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>64183</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>161192</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1002,13 +1001,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>448918</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>37951</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1046,13 +1045,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>392430</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1106,6 +1105,50 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180267</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104326</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5178096-3C86-499C-AE9D-401E5BA8F8BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1276350"/>
+          <a:ext cx="5666667" cy="3590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3466,135 +3509,128 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A46" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="A46" r:id="rId1" xr:uid="{E47D6C76-F2D6-4252-8372-01AFF59AFC42}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3606,41 +3642,41 @@
       <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3656,17 +3692,17 @@
   <dimension ref="A1:A127"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W128" sqref="W128"/>
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="32.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="33" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="32.4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:1" ht="33" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>4</v>
       </c>
@@ -3686,26 +3722,26 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="32.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="33" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A103" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3723,24 +3759,24 @@
       <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="32.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="33" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="2" customFormat="1" ht="39" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" s="2" customFormat="1" ht="39.75" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -3758,55 +3794,56 @@
   <dimension ref="A2:A129"/>
   <sheetViews>
     <sheetView topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A123" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A124" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A125" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A127" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A129" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3815,54 +3852,54 @@
   <dimension ref="A2:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/VSCode_Git.xlsx
+++ b/VSCode_Git.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yajima.mariko\Desktop\Udemy\studingUdemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006B27E8-B258-4274-AA45-97C00766A334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C9044E-2410-47FB-B9A3-B26806CBA2D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4732BDE3-9546-460C-A69B-A17D05715147}"/>
   </bookViews>
@@ -3509,9 +3509,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -3621,8 +3623,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
         <v>18</v>
       </c>
     </row>
